--- a/backend-python/general_document/BOM-V1.0-temp.xlsx
+++ b/backend-python/general_document/BOM-V1.0-temp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>浙江健诚鞋业集团股份有限公司
 ZHEJIANG  JIANCHENG SHOES GROUP CO.,LTD. 
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>材料名称</t>
+  </si>
+  <si>
+    <t>材料型号</t>
   </si>
   <si>
     <t>材料规格</t>
@@ -314,7 +317,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,13 +361,6 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -879,140 +875,140 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1034,6 +1030,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1043,25 +1042,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1600,8 +1593,8 @@
   </sheetPr>
   <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:P82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1634,7 +1627,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="17"/>
+      <c r="R1" s="16"/>
     </row>
     <row r="2" ht="58" customHeight="1" spans="1:18">
       <c r="A2" s="2"/>
@@ -1654,7 +1647,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="17"/>
+      <c r="R2" s="16"/>
     </row>
     <row r="3" ht="58" customHeight="1" spans="1:18">
       <c r="A3" s="2"/>
@@ -1674,7 +1667,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="17"/>
+      <c r="R3" s="16"/>
     </row>
     <row r="4" ht="14.25" spans="1:18">
       <c r="A4" s="2" t="s">
@@ -1696,7 +1689,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="18"/>
+      <c r="R4" s="17"/>
     </row>
     <row r="5" ht="28.5" spans="1:18">
       <c r="A5" s="3" t="s">
@@ -1723,10 +1716,10 @@
         <v>7</v>
       </c>
       <c r="N5" s="3"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="18"/>
+      <c r="R5" s="17"/>
     </row>
     <row r="6" ht="14.25" spans="1:18">
       <c r="A6" s="5" t="s">
@@ -1748,27 +1741,27 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="17"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="R6" s="16"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:16">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="H7" s="7"/>
       <c r="I7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1784,1512 +1777,1514 @@
       <c r="M7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="6"/>
+      <c r="N7" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="O7" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+    <row r="8" ht="14.25" spans="1:16">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="6"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="N8" s="7"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
     <row r="9" ht="15.75" spans="1:16">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="11"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="12"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
       <c r="M9" s="15"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="16"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:16">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="11"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="12"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="16"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
     </row>
     <row r="11" ht="15.75" spans="1:16">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="11"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="12"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="16"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
     </row>
     <row r="12" ht="15.75" spans="1:16">
       <c r="A12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="11"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="12"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
       <c r="M12" s="15"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="16"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
     </row>
     <row r="13" ht="15.75" spans="1:16">
       <c r="A13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="11"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="12"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="16"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
     </row>
     <row r="14" ht="15.75" spans="1:16">
       <c r="A14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="12"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
       <c r="M14" s="15"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="16"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
     </row>
     <row r="15" ht="15.75" spans="1:16">
       <c r="A15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="11"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="12"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
       <c r="M15" s="15"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="16"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
     </row>
     <row r="16" ht="15.75" spans="1:16">
       <c r="A16" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="11"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="12"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
       <c r="M16" s="15"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="16"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
     </row>
     <row r="17" ht="15.75" spans="1:16">
       <c r="A17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="11"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="12"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
       <c r="M17" s="15"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="16"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
     </row>
     <row r="18" ht="15.75" spans="1:16">
       <c r="A18" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="12"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
       <c r="M18" s="15"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="16"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
     </row>
     <row r="19" ht="15.75" spans="1:16">
       <c r="A19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="11"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="12"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
       <c r="M19" s="15"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="16"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
     </row>
     <row r="20" ht="15.75" spans="1:16">
       <c r="A20" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="11"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="12"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="16"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
     </row>
     <row r="21" ht="15.75" spans="1:16">
       <c r="A21" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="12"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="16"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
     </row>
     <row r="22" ht="15.75" spans="1:16">
       <c r="A22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="12"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
       <c r="M22" s="15"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="16"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
     </row>
     <row r="23" ht="15.75" spans="1:16">
       <c r="A23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="12"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="16"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
     </row>
     <row r="24" ht="15.75" spans="1:16">
       <c r="A24" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="12"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="16"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
     </row>
     <row r="25" ht="15.75" spans="1:16">
       <c r="A25" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="12"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="16"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
     </row>
     <row r="26" ht="15.75" spans="1:16">
       <c r="A26" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="12"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
       <c r="M26" s="15"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="16"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
     </row>
     <row r="27" ht="15.75" spans="1:16">
       <c r="A27" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="12"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="16"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
     </row>
     <row r="28" ht="15.75" spans="1:16">
       <c r="A28" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="12"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
       <c r="M28" s="15"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="16"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
     </row>
     <row r="29" ht="15.75" spans="1:16">
       <c r="A29" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="12"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="16"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
     </row>
     <row r="30" ht="15.75" spans="1:16">
       <c r="A30" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="12"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
       <c r="M30" s="15"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="16"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
     </row>
     <row r="31" ht="15.75" spans="1:16">
       <c r="A31" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="12"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
       <c r="M31" s="15"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="16"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
     </row>
     <row r="32" ht="15.75" spans="1:16">
       <c r="A32" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="12"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
       <c r="M32" s="15"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="16"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
     </row>
     <row r="33" ht="15.75" spans="1:16">
       <c r="A33" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="12"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
       <c r="M33" s="15"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="16"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
     </row>
     <row r="34" ht="15.75" spans="1:16">
       <c r="A34" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="11"/>
+        <v>43</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="12"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
       <c r="M34" s="15"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="16"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
     </row>
     <row r="35" ht="15.75" spans="1:16">
       <c r="A35" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="12"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
       <c r="M35" s="15"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="16"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
     </row>
     <row r="36" ht="15.75" spans="1:16">
       <c r="A36" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="11"/>
+        <v>45</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="12"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="16"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
     </row>
     <row r="37" ht="15.75" spans="1:16">
       <c r="A37" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="12"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
       <c r="M37" s="15"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="16"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
     </row>
     <row r="38" ht="15.75" spans="1:16">
       <c r="A38" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="12"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
       <c r="M38" s="15"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="16"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
     </row>
     <row r="39" ht="15.75" spans="1:16">
       <c r="A39" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="12"/>
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="12"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
       <c r="M39" s="15"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="16"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
     </row>
     <row r="40" ht="15.75" spans="1:16">
       <c r="A40" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="11"/>
+        <v>49</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="12"/>
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="12"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
       <c r="M40" s="15"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="16"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
     </row>
     <row r="41" ht="15.75" spans="1:16">
       <c r="A41" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="12"/>
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="12"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
       <c r="M41" s="15"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="16"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
     </row>
     <row r="42" ht="15.75" spans="1:16">
       <c r="A42" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="12"/>
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="12"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
       <c r="M42" s="15"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="16"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
     </row>
     <row r="43" ht="15.75" spans="1:16">
       <c r="A43" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="12"/>
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="12"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
       <c r="M43" s="15"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="16"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
     </row>
     <row r="44" ht="15.75" spans="1:16">
       <c r="A44" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="12"/>
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="12"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
       <c r="M44" s="15"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="16"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
     </row>
     <row r="45" ht="15.75" spans="1:16">
       <c r="A45" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="12"/>
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="12"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
       <c r="M45" s="15"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="16"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
     </row>
     <row r="46" ht="15.75" spans="1:16">
       <c r="A46" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="12"/>
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="12"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
       <c r="M46" s="15"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="16"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
     </row>
     <row r="47" ht="15.75" spans="1:16">
       <c r="A47" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="12"/>
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="12"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
       <c r="M47" s="15"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="16"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
     </row>
     <row r="48" ht="15.75" spans="1:16">
       <c r="A48" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="12"/>
       <c r="G48" s="11"/>
       <c r="H48" s="12"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="12"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
       <c r="M48" s="15"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="16"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
     </row>
     <row r="49" ht="15.75" spans="1:16">
       <c r="A49" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="12"/>
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="12"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
       <c r="M49" s="15"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="16"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
     </row>
     <row r="50" ht="15.75" spans="1:16">
       <c r="A50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="11"/>
+        <v>59</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="12"/>
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="12"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
       <c r="M50" s="15"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="16"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
     </row>
     <row r="51" ht="15.75" spans="1:16">
       <c r="A51" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="12"/>
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="12"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
       <c r="M51" s="15"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="16"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
     </row>
     <row r="52" ht="15.75" spans="1:16">
       <c r="A52" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="12"/>
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="12"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
       <c r="M52" s="15"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="16"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
     </row>
     <row r="53" ht="15.75" spans="1:16">
       <c r="A53" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="11"/>
+        <v>62</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="12"/>
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="12"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
       <c r="M53" s="15"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="16"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
     </row>
     <row r="54" ht="15.75" spans="1:16">
       <c r="A54" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="12"/>
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="12"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
       <c r="M54" s="15"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="16"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
     </row>
     <row r="55" ht="15.75" spans="1:16">
       <c r="A55" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="12"/>
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="12"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
       <c r="M55" s="15"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="16"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
     </row>
     <row r="56" ht="15.75" spans="1:16">
       <c r="A56" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="12"/>
       <c r="G56" s="11"/>
       <c r="H56" s="12"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="12"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
       <c r="M56" s="15"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="16"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
     </row>
     <row r="57" ht="15.75" spans="1:16">
       <c r="A57" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="12"/>
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="12"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
       <c r="M57" s="15"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="16"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
     </row>
     <row r="58" ht="15.75" spans="1:16">
       <c r="A58" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="12"/>
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="12"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
       <c r="M58" s="15"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="16"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
     </row>
     <row r="59" ht="15.75" spans="1:16">
       <c r="A59" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="12"/>
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="12"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
       <c r="M59" s="15"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="16"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
     </row>
     <row r="60" ht="15.75" spans="1:16">
       <c r="A60" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="12"/>
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="12"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
       <c r="M60" s="15"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="16"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
     </row>
     <row r="61" ht="15.75" spans="1:16">
       <c r="A61" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="12"/>
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="12"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
       <c r="M61" s="15"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="16"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
     </row>
     <row r="62" ht="15.75" spans="1:16">
       <c r="A62" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="12"/>
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="12"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
       <c r="M62" s="15"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="16"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
     </row>
     <row r="63" ht="15.75" spans="1:16">
       <c r="A63" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="11"/>
+        <v>72</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="12"/>
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="12"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
       <c r="M63" s="15"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="16"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
     </row>
     <row r="64" ht="15.75" spans="1:16">
       <c r="A64" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="11"/>
+        <v>73</v>
+      </c>
+      <c r="B64" s="9"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="12"/>
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="12"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
       <c r="M64" s="15"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="16"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
     </row>
     <row r="65" ht="15.75" spans="1:16">
       <c r="A65" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="12"/>
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="12"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
       <c r="M65" s="15"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="16"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
     </row>
     <row r="66" ht="15.75" spans="1:16">
       <c r="A66" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="B66" s="9"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="12"/>
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="12"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
       <c r="M66" s="15"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="16"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
     </row>
     <row r="67" ht="15.75" spans="1:16">
       <c r="A67" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="11"/>
+        <v>76</v>
+      </c>
+      <c r="B67" s="9"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="12"/>
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="12"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
       <c r="M67" s="15"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="16"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
     </row>
     <row r="68" ht="15.75" spans="1:16">
       <c r="A68" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="11"/>
+        <v>77</v>
+      </c>
+      <c r="B68" s="9"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="12"/>
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="12"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
       <c r="M68" s="15"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="16"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
     </row>
     <row r="69" ht="15.75" spans="1:16">
       <c r="A69" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="B69" s="9"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="12"/>
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="12"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
       <c r="M69" s="15"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="16"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
     </row>
     <row r="70" ht="15.75" spans="1:16">
       <c r="A70" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="11"/>
+        <v>79</v>
+      </c>
+      <c r="B70" s="9"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="12"/>
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="12"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
       <c r="M70" s="15"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="16"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
     </row>
     <row r="71" ht="15.75" spans="1:16">
       <c r="A71" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="B71" s="9"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="12"/>
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="12"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
       <c r="M71" s="15"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="16"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
     </row>
     <row r="72" ht="15.75" spans="1:16">
       <c r="A72" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="11"/>
+        <v>81</v>
+      </c>
+      <c r="B72" s="9"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="12"/>
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="12"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
       <c r="M72" s="15"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="16"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
     </row>
     <row r="73" ht="15.75" spans="1:16">
       <c r="A73" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="B73" s="9"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="12"/>
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="12"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
       <c r="M73" s="15"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="16"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
     </row>
     <row r="74" ht="15.75" spans="1:16">
       <c r="A74" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="11"/>
+        <v>83</v>
+      </c>
+      <c r="B74" s="9"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="12"/>
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="12"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
       <c r="M74" s="15"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="16"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
     </row>
     <row r="75" ht="15.75" spans="1:16">
       <c r="A75" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="11"/>
+        <v>84</v>
+      </c>
+      <c r="B75" s="9"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="12"/>
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="12"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
       <c r="M75" s="15"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="16"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
     </row>
     <row r="76" ht="15.75" spans="1:16">
       <c r="A76" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="11"/>
+        <v>85</v>
+      </c>
+      <c r="B76" s="9"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="12"/>
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="12"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
       <c r="M76" s="15"/>
-      <c r="N76" s="16"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="16"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
     </row>
     <row r="77" ht="15.75" spans="1:16">
       <c r="A77" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="11"/>
+        <v>86</v>
+      </c>
+      <c r="B77" s="9"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="12"/>
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="12"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
       <c r="M77" s="15"/>
-      <c r="N77" s="16"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="16"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
     </row>
     <row r="78" ht="15.75" spans="1:16">
       <c r="A78" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="B78" s="9"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="12"/>
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="12"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
       <c r="M78" s="15"/>
-      <c r="N78" s="16"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="16"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
     </row>
     <row r="79" ht="15.75" spans="1:16">
       <c r="A79" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="B79" s="9"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="12"/>
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="12"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
       <c r="M79" s="15"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="15"/>
-      <c r="P79" s="16"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
     </row>
     <row r="80" ht="15.75" spans="1:16">
       <c r="A80" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="11"/>
+        <v>89</v>
+      </c>
+      <c r="B80" s="9"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="12"/>
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="12"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
       <c r="M80" s="15"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="16"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
     </row>
     <row r="81" ht="15.75" spans="1:16">
       <c r="A81" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="B81" s="9"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="12"/>
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="12"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
       <c r="M81" s="15"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="16"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
     </row>
     <row r="82" ht="15.75" spans="1:16">
       <c r="A82" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="11"/>
+        <v>91</v>
+      </c>
+      <c r="B82" s="9"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="12"/>
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
-      <c r="L82" s="12"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
       <c r="M82" s="15"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="16"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="393">
+  <mergeCells count="320">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:P4"/>
     <mergeCell ref="A5:B5"/>
@@ -3299,389 +3294,316 @@
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="A6:P6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="O13:P13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
     <mergeCell ref="O14:P14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="O15:P15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="O16:P16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="O18:P18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="O19:P19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="O20:P20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="O21:P21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="O22:P22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="O23:P23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="O24:P24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
     <mergeCell ref="O25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
     <mergeCell ref="O26:P26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="O27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="O28:P28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="O29:P29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="O30:P30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
     <mergeCell ref="O31:P31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
     <mergeCell ref="O32:P32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="O33:P33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
     <mergeCell ref="O34:P34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
     <mergeCell ref="O35:P35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="O36:P36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
     <mergeCell ref="O37:P37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
     <mergeCell ref="O38:P38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
     <mergeCell ref="O39:P39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
     <mergeCell ref="O40:P40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
     <mergeCell ref="O41:P41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
     <mergeCell ref="O42:P42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
     <mergeCell ref="O43:P43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
     <mergeCell ref="O44:P44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
     <mergeCell ref="O45:P45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
     <mergeCell ref="O46:P46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
     <mergeCell ref="O47:P47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
     <mergeCell ref="O48:P48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
     <mergeCell ref="O49:P49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
     <mergeCell ref="O50:P50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
     <mergeCell ref="O51:P51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
     <mergeCell ref="O52:P52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
     <mergeCell ref="O53:P53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
     <mergeCell ref="O54:P54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
     <mergeCell ref="O55:P55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
     <mergeCell ref="O56:P56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
     <mergeCell ref="O57:P57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
     <mergeCell ref="O58:P58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
     <mergeCell ref="O59:P59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
     <mergeCell ref="O60:P60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
     <mergeCell ref="O61:P61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
     <mergeCell ref="O62:P62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
     <mergeCell ref="O63:P63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
     <mergeCell ref="O64:P64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
     <mergeCell ref="O65:P65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
     <mergeCell ref="O66:P66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
     <mergeCell ref="O67:P67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
     <mergeCell ref="O68:P68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G69:H69"/>
     <mergeCell ref="O69:P69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
     <mergeCell ref="O70:P70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
     <mergeCell ref="O71:P71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
     <mergeCell ref="O72:P72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:H73"/>
     <mergeCell ref="O73:P73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
     <mergeCell ref="O74:P74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
     <mergeCell ref="O75:P75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
     <mergeCell ref="O76:P76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
     <mergeCell ref="O77:P77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
     <mergeCell ref="O78:P78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
     <mergeCell ref="O79:P79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
     <mergeCell ref="O80:P80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
     <mergeCell ref="O81:P81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:H82"/>
     <mergeCell ref="O82:P82"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="L1:M3"/>
     <mergeCell ref="N1:P3"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
     <mergeCell ref="O7:P8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.298611111111111" footer="0.298611111111111"/>
